--- a/GUI and Usability/Usability Bugs.xlsx
+++ b/GUI and Usability/Usability Bugs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\GUI and Usability\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DE9D56-2239-4223-A1E4-2B216469968B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Bugs" sheetId="1" r:id="rId4"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -90,38 +99,97 @@
   <si>
     <t>1. Get rid of the Offer tag on non-Offer products
 2. Show special Offer products on the Top Selling Offers menu</t>
+  </si>
+  <si>
+    <t>http://mymarket-2.apphb.com/Products.aspx</t>
+  </si>
+  <si>
+    <t>In the Categories section on the left, the categories are all shown. If there are more categories, this will get longer and longer, making it inconvenient for the user</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Collapse the subcategories. The user can choose to expand the category they want.</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>http://mymarket-2.apphb.com/FAQs.aspx</t>
+  </si>
+  <si>
+    <t>The text does not have good contrast with the background</t>
+  </si>
+  <si>
+    <t>Make the text darker</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>http://mymarket-2.apphb.com/About.aspx</t>
+  </si>
+  <si>
+    <t>The first section of text does not have good contrast with the background</t>
+  </si>
+  <si>
+    <t>The page title (what is shown when you hover over the tab bar, also what is shown in the browser history) is too long, making it inconvenient for the user</t>
+  </si>
+  <si>
+    <t>Make the title shorter</t>
+  </si>
+  <si>
+    <t>The text describing the number of items shown in one page ("Item on page 9") is confusing</t>
+  </si>
+  <si>
+    <t>Extract the text "Items in one page" to the left of the selection box, and leave only the numbers as the option.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -129,7 +197,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,59 +219,55 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -393,32 +457,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="27.14"/>
-    <col customWidth="1" min="3" max="3" width="52.14"/>
-    <col customWidth="1" min="4" max="4" width="75.0"/>
-    <col customWidth="1" min="6" max="6" width="54.0"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="6" max="6" width="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,9 +505,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -448,7 +515,7 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -458,9 +525,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -478,9 +545,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -498,9 +565,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -518,9 +585,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -528,7 +595,7 @@
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -538,14 +605,114 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{713B936E-FFAE-4BC9-810A-FBAEE45C0EC7}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{E25604BF-F47F-4068-A1E3-9D3BDE4FC44B}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>